--- a/辅助总表/技能&技能状态表(1).xlsx
+++ b/辅助总表/技能&技能状态表(1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/XHCY/辅助总表/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="技能表 - 技能表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>

--- a/辅助总表/技能&技能状态表(1).xlsx
+++ b/辅助总表/技能&技能状态表(1).xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能表 - 技能表" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
   <si>
     <t>主动技能(包括普通攻击) SkillMaster</t>
   </si>
@@ -288,13 +289,128 @@
   </si>
   <si>
     <t>当目标类型为3,4时决定随机的人数</t>
+  </si>
+  <si>
+    <t>目标</t>
+    <rPh sb="0" eb="1">
+      <t>mu'b</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <rPh sb="0" eb="1">
+      <t>fan'w</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身</t>
+    <rPh sb="0" eb="1">
+      <t>zi'shen</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方</t>
+    <rPh sb="0" eb="1">
+      <t>ji'f</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <rPh sb="0" eb="1">
+      <t>di'f</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排</t>
+    <rPh sb="0" eb="1">
+      <t>hou'p</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机</t>
+    <rPh sb="0" eb="1">
+      <t>sui'j</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体</t>
+    <rPh sb="0" eb="1">
+      <t>dan't</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <rPh sb="0" eb="1">
+      <t>quan't</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透</t>
+    <rPh sb="0" eb="1">
+      <t>chuan't</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发散</t>
+    <rPh sb="0" eb="1">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>san</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字</t>
+    <rPh sb="0" eb="1">
+      <t>shi'zi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>贯穿</t>
+    <rPh sb="0" eb="1">
+      <t>guan'cuan</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>横扫</t>
+    <rPh sb="0" eb="1">
+      <t>heng's</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <rPh sb="0" eb="1">
+      <t>fan'w</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多体</t>
+    <rPh sb="0" eb="1">
+      <t>duo'ti</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -329,6 +445,13 @@
     <font>
       <sz val="9"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -506,7 +629,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -642,6 +765,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1833,11 +1958,11 @@
   </sheetPr>
   <dimension ref="A1:IV56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2984,4 +3109,94 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E6:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F13" s="45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F14" s="45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F15" s="46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F20" s="46"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F21" s="46"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>